--- a/experiments_log.xlsx
+++ b/experiments_log.xlsx
@@ -54,6 +54,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -364,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN132"/>
+  <dimension ref="A1:AN146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18394,8 +18462,1912 @@
       <c r="AL132" t="b">
         <v>0</v>
       </c>
-      <c r="AM132" t="inlineStr"/>
       <c r="AN132" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>HopperRandParamsEnv-v1</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="b">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>64</v>
+      </c>
+      <c r="F133" t="n">
+        <v>32</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>20</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N133" t="n">
+        <v>40</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P133" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R133" t="n">
+        <v>15</v>
+      </c>
+      <c r="S133" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>hcv-33</t>
+        </is>
+      </c>
+      <c r="V133" t="n">
+        <v>1</v>
+      </c>
+      <c r="W133" t="n">
+        <v>16</v>
+      </c>
+      <c r="X133" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="AA133" t="inlineStr">
+        <is>
+          <t>saves</t>
+        </is>
+      </c>
+      <c r="AB133" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC133" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD133" t="inlineStr">
+        <is>
+          <t>ppo</t>
+        </is>
+      </c>
+      <c r="AE133" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG133" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AH133" t="inlineStr">
+        <is>
+          <t>input_latent</t>
+        </is>
+      </c>
+      <c r="AI133" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="AJ133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK133" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="AL133" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN133" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>HopperRandParamsEnv-v1</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="b">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>64</v>
+      </c>
+      <c r="F134" t="n">
+        <v>32</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>20</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N134" t="n">
+        <v>40</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P134" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R134" t="n">
+        <v>15</v>
+      </c>
+      <c r="S134" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>hcv-33</t>
+        </is>
+      </c>
+      <c r="V134" t="n">
+        <v>1</v>
+      </c>
+      <c r="W134" t="n">
+        <v>16</v>
+      </c>
+      <c r="X134" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z134" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="AA134" t="inlineStr">
+        <is>
+          <t>saves</t>
+        </is>
+      </c>
+      <c r="AB134" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC134" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD134" t="inlineStr">
+        <is>
+          <t>ppo</t>
+        </is>
+      </c>
+      <c r="AE134" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG134" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AH134" t="inlineStr">
+        <is>
+          <t>input_latent</t>
+        </is>
+      </c>
+      <c r="AI134" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="AJ134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK134" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="AL134" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN134" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>HopperRandParamsEnv-v1</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="b">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>64</v>
+      </c>
+      <c r="F135" t="n">
+        <v>32</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>20</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N135" t="n">
+        <v>40</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P135" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R135" t="n">
+        <v>15</v>
+      </c>
+      <c r="S135" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>hcv-33</t>
+        </is>
+      </c>
+      <c r="V135" t="n">
+        <v>1</v>
+      </c>
+      <c r="W135" t="n">
+        <v>16</v>
+      </c>
+      <c r="X135" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z135" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="AA135" t="inlineStr">
+        <is>
+          <t>saves</t>
+        </is>
+      </c>
+      <c r="AB135" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC135" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD135" t="inlineStr">
+        <is>
+          <t>ppo</t>
+        </is>
+      </c>
+      <c r="AE135" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG135" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AH135" t="inlineStr">
+        <is>
+          <t>input_latent</t>
+        </is>
+      </c>
+      <c r="AI135" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="AJ135" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK135" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="AL135" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN135" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>HopperRandParamsEnv-v1</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="b">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>64</v>
+      </c>
+      <c r="F136" t="n">
+        <v>32</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>20</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N136" t="n">
+        <v>40</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P136" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R136" t="n">
+        <v>15</v>
+      </c>
+      <c r="S136" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>hcv-33</t>
+        </is>
+      </c>
+      <c r="V136" t="n">
+        <v>1</v>
+      </c>
+      <c r="W136" t="n">
+        <v>16</v>
+      </c>
+      <c r="X136" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z136" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="AA136" t="inlineStr">
+        <is>
+          <t>saves</t>
+        </is>
+      </c>
+      <c r="AB136" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC136" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD136" t="inlineStr">
+        <is>
+          <t>ppo</t>
+        </is>
+      </c>
+      <c r="AE136" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG136" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AH136" t="inlineStr">
+        <is>
+          <t>input_latent</t>
+        </is>
+      </c>
+      <c r="AI136" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="AJ136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK136" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="AL136" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN136" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>metaworld-5</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="b">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>64</v>
+      </c>
+      <c r="F137" t="n">
+        <v>32</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>20</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N137" t="n">
+        <v>40</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P137" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R137" t="n">
+        <v>15</v>
+      </c>
+      <c r="S137" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>hcv-33</t>
+        </is>
+      </c>
+      <c r="V137" t="n">
+        <v>1</v>
+      </c>
+      <c r="W137" t="n">
+        <v>16</v>
+      </c>
+      <c r="X137" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="AA137" t="inlineStr">
+        <is>
+          <t>saves</t>
+        </is>
+      </c>
+      <c r="AB137" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC137" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD137" t="inlineStr">
+        <is>
+          <t>ppo</t>
+        </is>
+      </c>
+      <c r="AE137" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG137" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AH137" t="inlineStr">
+        <is>
+          <t>input_latent</t>
+        </is>
+      </c>
+      <c r="AI137" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="AJ137" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK137" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="AL137" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN137" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>metaworld-5</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="b">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>64</v>
+      </c>
+      <c r="F138" t="n">
+        <v>32</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>20</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N138" t="n">
+        <v>40</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P138" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R138" t="n">
+        <v>15</v>
+      </c>
+      <c r="S138" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>hcv-33</t>
+        </is>
+      </c>
+      <c r="V138" t="n">
+        <v>1</v>
+      </c>
+      <c r="W138" t="n">
+        <v>16</v>
+      </c>
+      <c r="X138" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z138" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="AA138" t="inlineStr">
+        <is>
+          <t>saves</t>
+        </is>
+      </c>
+      <c r="AB138" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC138" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD138" t="inlineStr">
+        <is>
+          <t>ppo</t>
+        </is>
+      </c>
+      <c r="AE138" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG138" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AH138" t="inlineStr">
+        <is>
+          <t>input_latent</t>
+        </is>
+      </c>
+      <c r="AI138" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="AJ138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK138" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="AL138" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN138" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>metaworld-5</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="b">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>64</v>
+      </c>
+      <c r="F139" t="n">
+        <v>32</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>20</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N139" t="n">
+        <v>40</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P139" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R139" t="n">
+        <v>15</v>
+      </c>
+      <c r="S139" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>hcv-33</t>
+        </is>
+      </c>
+      <c r="V139" t="n">
+        <v>1</v>
+      </c>
+      <c r="W139" t="n">
+        <v>16</v>
+      </c>
+      <c r="X139" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="AA139" t="inlineStr">
+        <is>
+          <t>saves</t>
+        </is>
+      </c>
+      <c r="AB139" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC139" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD139" t="inlineStr">
+        <is>
+          <t>ppo</t>
+        </is>
+      </c>
+      <c r="AE139" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG139" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AH139" t="inlineStr">
+        <is>
+          <t>input_latent</t>
+        </is>
+      </c>
+      <c r="AI139" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="AJ139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK139" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="AL139" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN139" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>metaworld-5</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="b">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>64</v>
+      </c>
+      <c r="F140" t="n">
+        <v>32</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>20</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N140" t="n">
+        <v>40</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P140" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R140" t="n">
+        <v>15</v>
+      </c>
+      <c r="S140" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>hcv-33</t>
+        </is>
+      </c>
+      <c r="V140" t="n">
+        <v>1</v>
+      </c>
+      <c r="W140" t="n">
+        <v>16</v>
+      </c>
+      <c r="X140" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z140" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="AA140" t="inlineStr">
+        <is>
+          <t>saves</t>
+        </is>
+      </c>
+      <c r="AB140" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC140" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD140" t="inlineStr">
+        <is>
+          <t>ppo</t>
+        </is>
+      </c>
+      <c r="AE140" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG140" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AH140" t="inlineStr">
+        <is>
+          <t>input_latent</t>
+        </is>
+      </c>
+      <c r="AI140" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="AJ140" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK140" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="AL140" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN140" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>metaworld-5</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="b">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>64</v>
+      </c>
+      <c r="F141" t="n">
+        <v>32</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>20</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N141" t="n">
+        <v>40</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P141" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R141" t="n">
+        <v>15</v>
+      </c>
+      <c r="S141" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>hcv-33</t>
+        </is>
+      </c>
+      <c r="V141" t="n">
+        <v>1</v>
+      </c>
+      <c r="W141" t="n">
+        <v>16</v>
+      </c>
+      <c r="X141" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z141" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="AA141" t="inlineStr">
+        <is>
+          <t>saves</t>
+        </is>
+      </c>
+      <c r="AB141" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC141" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD141" t="inlineStr">
+        <is>
+          <t>ppo</t>
+        </is>
+      </c>
+      <c r="AE141" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG141" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AH141" t="inlineStr">
+        <is>
+          <t>input_latent</t>
+        </is>
+      </c>
+      <c r="AI141" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="AJ141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK141" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="AL141" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN141" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>metaworld-5</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="b">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>64</v>
+      </c>
+      <c r="F142" t="n">
+        <v>32</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>20</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N142" t="n">
+        <v>40</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P142" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R142" t="n">
+        <v>15</v>
+      </c>
+      <c r="S142" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>hcv-33</t>
+        </is>
+      </c>
+      <c r="V142" t="n">
+        <v>1</v>
+      </c>
+      <c r="W142" t="n">
+        <v>16</v>
+      </c>
+      <c r="X142" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="AA142" t="inlineStr">
+        <is>
+          <t>saves</t>
+        </is>
+      </c>
+      <c r="AB142" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC142" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD142" t="inlineStr">
+        <is>
+          <t>ppo</t>
+        </is>
+      </c>
+      <c r="AE142" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG142" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AH142" t="inlineStr">
+        <is>
+          <t>input_latent</t>
+        </is>
+      </c>
+      <c r="AI142" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="AJ142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK142" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="AL142" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN142" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>metaworld-5</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="b">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>64</v>
+      </c>
+      <c r="F143" t="n">
+        <v>32</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>20</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N143" t="n">
+        <v>40</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P143" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R143" t="n">
+        <v>15</v>
+      </c>
+      <c r="S143" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>hcv-33</t>
+        </is>
+      </c>
+      <c r="V143" t="n">
+        <v>1</v>
+      </c>
+      <c r="W143" t="n">
+        <v>16</v>
+      </c>
+      <c r="X143" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="AA143" t="inlineStr">
+        <is>
+          <t>saves</t>
+        </is>
+      </c>
+      <c r="AB143" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC143" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD143" t="inlineStr">
+        <is>
+          <t>ppo</t>
+        </is>
+      </c>
+      <c r="AE143" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG143" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AH143" t="inlineStr">
+        <is>
+          <t>input_latent</t>
+        </is>
+      </c>
+      <c r="AI143" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="AJ143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK143" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="AL143" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN143" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>metaworld-5</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="b">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>64</v>
+      </c>
+      <c r="F144" t="n">
+        <v>32</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>20</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N144" t="n">
+        <v>40</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P144" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R144" t="n">
+        <v>15</v>
+      </c>
+      <c r="S144" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>hcv-33</t>
+        </is>
+      </c>
+      <c r="V144" t="n">
+        <v>1</v>
+      </c>
+      <c r="W144" t="n">
+        <v>16</v>
+      </c>
+      <c r="X144" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="AA144" t="inlineStr">
+        <is>
+          <t>saves</t>
+        </is>
+      </c>
+      <c r="AB144" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC144" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD144" t="inlineStr">
+        <is>
+          <t>ppo</t>
+        </is>
+      </c>
+      <c r="AE144" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG144" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AH144" t="inlineStr">
+        <is>
+          <t>input_latent</t>
+        </is>
+      </c>
+      <c r="AI144" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="AJ144" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK144" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="AL144" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN144" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>metaworld-5</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="b">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>64</v>
+      </c>
+      <c r="F145" t="n">
+        <v>32</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>20</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N145" t="n">
+        <v>40</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P145" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R145" t="n">
+        <v>15</v>
+      </c>
+      <c r="S145" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>hcv-33</t>
+        </is>
+      </c>
+      <c r="V145" t="n">
+        <v>1</v>
+      </c>
+      <c r="W145" t="n">
+        <v>16</v>
+      </c>
+      <c r="X145" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="AA145" t="inlineStr">
+        <is>
+          <t>saves</t>
+        </is>
+      </c>
+      <c r="AB145" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD145" t="inlineStr">
+        <is>
+          <t>ppo</t>
+        </is>
+      </c>
+      <c r="AE145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG145" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AH145" t="inlineStr">
+        <is>
+          <t>input_latent</t>
+        </is>
+      </c>
+      <c r="AI145" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="AJ145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK145" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="AL145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN145" t="inlineStr">
+        <is>
+          <t>cuda</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>metaworld-5</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="b">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>64</v>
+      </c>
+      <c r="F146" t="n">
+        <v>32</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>20</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N146" t="n">
+        <v>40</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P146" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="R146" t="n">
+        <v>15</v>
+      </c>
+      <c r="S146" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>hcv-33</t>
+        </is>
+      </c>
+      <c r="V146" t="n">
+        <v>1</v>
+      </c>
+      <c r="W146" t="n">
+        <v>16</v>
+      </c>
+      <c r="X146" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z146" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="AA146" t="inlineStr">
+        <is>
+          <t>saves</t>
+        </is>
+      </c>
+      <c r="AB146" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC146" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD146" t="inlineStr">
+        <is>
+          <t>ppo</t>
+        </is>
+      </c>
+      <c r="AE146" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG146" t="inlineStr">
+        <is>
+          <t>nn</t>
+        </is>
+      </c>
+      <c r="AH146" t="inlineStr">
+        <is>
+          <t>input_latent</t>
+        </is>
+      </c>
+      <c r="AI146" t="inlineStr">
+        <is>
+          <t>tanh</t>
+        </is>
+      </c>
+      <c r="AJ146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK146" t="inlineStr">
+        <is>
+          <t>returns</t>
+        </is>
+      </c>
+      <c r="AL146" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM146" t="inlineStr"/>
+      <c r="AN146" t="inlineStr">
         <is>
           <t>cuda</t>
         </is>
